--- a/biology/Zoologie/Atractotomus_mali/Atractotomus_mali.xlsx
+++ b/biology/Zoologie/Atractotomus_mali/Atractotomus_mali.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atractotomus mali est une espèce d'insecte de la famille des Miridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Longue de 3 à 4 mm, elle vit sur les pommiers et les aubépines. Elle peut occasionnellement être prédatrice.
 </t>
@@ -542,11 +556,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Atractotomus mali (Meyer-Dur, 1843)[1].
-L'espèce a été initialement classée dans le genre Capsus sous le protonyme Capsus mali Meyer-Dur, 1843[1].
-Atractotomus mali a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Atractotomus mali (Meyer-Dur, 1843).
+L'espèce a été initialement classée dans le genre Capsus sous le protonyme Capsus mali Meyer-Dur, 1843.
+Atractotomus mali a pour synonymes :
 Atractotomus britannicus Stichel, 1956
 Atractotomus collaris Stichel, 1956
 Atractotomus forticornis (Mulsant &amp; Rey, 1852)
